--- a/data/trans_orig/P36B14_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC45401-5FC5-4B4F-9921-609FABF95ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D41697-3B1B-442C-A0FF-43ADD7DC8DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1349114C-93AF-4784-87C8-F4E561C19A42}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDE32CE1-0AE6-47E0-8CF4-F288498D35F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="263">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -74,505 +74,505 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>Una por semana</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>Dos o más por semana</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>Una por semana</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>Dos o más por semana</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>5,34%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>63,61%</t>
   </si>
   <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>68,43%</t>
   </si>
   <si>
     <t>61,59%</t>
   </si>
   <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>33,06%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -581,82 +581,82 @@
     <t>17,41%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>60,09%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>59,99%</t>
   </si>
   <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>60,04%</t>
   </si>
   <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -665,19 +665,19 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,11%</t>
@@ -686,109 +686,112 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>70,09%</t>
   </si>
   <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>77,33%</t>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
   </si>
   <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>40,57%</t>
+    <t>40,5%</t>
   </si>
   <si>
     <t>44,55%</t>
@@ -797,25 +800,28 @@
     <t>47,48%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>53,63%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED16892-95B7-44F6-BB70-B5215FA07B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE9E9E2-D7C9-48A8-BD40-4411BBD34CD0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1814,7 +1820,7 @@
         <v>125</v>
       </c>
       <c r="D13" s="7">
-        <v>117902</v>
+        <v>117901</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1865,7 +1871,7 @@
         <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>186577</v>
+        <v>186576</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1916,7 +1922,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>316440</v>
+        <v>316439</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2199,7 +2205,7 @@
         <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -2208,13 +2214,13 @@
         <v>3485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2235,13 @@
         <v>54711</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -2244,13 +2250,13 @@
         <v>45147</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>169</v>
@@ -2259,13 +2265,13 @@
         <v>99858</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2286,13 @@
         <v>140612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>389</v>
@@ -2295,13 +2301,13 @@
         <v>184289</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>591</v>
@@ -2310,13 +2316,13 @@
         <v>324901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2378,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2384,13 +2390,13 @@
         <v>14471</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2399,13 +2405,13 @@
         <v>9181</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -2414,13 +2420,13 @@
         <v>23652</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2441,13 @@
         <v>165155</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -2450,10 +2456,10 @@
         <v>175320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>166</v>
@@ -2865,10 +2871,10 @@
         <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>1360</v>
@@ -2877,13 +2883,13 @@
         <v>1247130</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2904,13 @@
         <v>239870</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>252</v>
@@ -2913,13 +2919,13 @@
         <v>204445</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>424</v>
@@ -2928,13 +2934,13 @@
         <v>444316</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3008,13 @@
         <v>291007</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>530</v>
@@ -3017,13 +3023,13 @@
         <v>361728</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>809</v>
@@ -3032,13 +3038,13 @@
         <v>652735</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3059,13 @@
         <v>1480272</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>2227</v>
@@ -3068,13 +3074,13 @@
         <v>1607879</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>3698</v>
@@ -3083,13 +3089,13 @@
         <v>3088151</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3110,13 @@
         <v>1600992</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>2593</v>
@@ -3119,13 +3125,13 @@
         <v>1824372</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>4203</v>
@@ -3134,13 +3140,13 @@
         <v>3425364</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3202,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
